--- a/Baseline - AC4.xlsx
+++ b/Baseline - AC4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenda.oliveira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1874212-6891-406A-8315-B11879998D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35780C38-D47B-478A-AA3A-0CCE3F32A2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C310A41E-682F-49AF-B643-675C640F2054}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>SGBD: SQL SERVER</t>
   </si>
   <si>
-    <t>SGBD: Access</t>
-  </si>
-  <si>
     <t>Crítica</t>
   </si>
   <si>
@@ -182,10 +179,13 @@
     <t>Parâmetros</t>
   </si>
   <si>
-    <t>Ferramenta: Excel</t>
-  </si>
-  <si>
     <t>Ferramenta: Power BI</t>
+  </si>
+  <si>
+    <t>SGBD: MSAccess</t>
+  </si>
+  <si>
+    <t>Ferramenta: MS Excel</t>
   </si>
 </sst>
 </file>
@@ -310,9 +310,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B603E70-2E4E-47FD-82E0-20559FE128AA}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,10 +654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,13 +676,13 @@
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -690,16 +690,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,13 +710,13 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -724,16 +724,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -741,16 +741,16 @@
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -758,16 +758,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,21 +778,21 @@
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -816,16 +816,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -853,13 +853,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -870,13 +870,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -884,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -921,13 +921,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -935,16 +935,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -955,13 +955,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -972,13 +972,13 @@
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -989,13 +989,13 @@
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1003,16 +1003,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
